--- a/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
+++ b/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
@@ -408,7 +408,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432BAA0C-C56A-4E53-9098-577F176ED1E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3D576AD-C1F7-414E-91F1-0B03C52F84A2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
+++ b/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
@@ -408,7 +408,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3D576AD-C1F7-414E-91F1-0B03C52F84A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A03374F-EFF4-4CFE-9CA7-551BC1A86ADD}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
+++ b/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
@@ -408,7 +408,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A03374F-EFF4-4CFE-9CA7-551BC1A86ADD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330C5D30-8D2B-4B84-A5CF-59D358C72529}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
+++ b/ExcelWorkbook/bin/Debug/ExcelWorkbook.xlsx
@@ -408,7 +408,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330C5D30-8D2B-4B84-A5CF-59D358C72529}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCDF6E6-C5E7-4138-9204-64186709D128}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>